--- a/docs/部门政策地址--0813.xlsx
+++ b/docs/部门政策地址--0813.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gerapy\projects\xinhua\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91A2779-B3CD-4671-9136-9CBADD3EA25C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="1280" windowWidth="18350" windowHeight="11020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
   <si>
     <t>序号</t>
   </si>
@@ -419,14 +425,18 @@
   </si>
   <si>
     <t>国家卫生健康委员会</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>失效</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,22 +899,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="38.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="34.26953125" customWidth="1"/>
+    <col min="4" max="4" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -918,7 +928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -932,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -946,7 +956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -960,7 +970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -974,7 +984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -988,7 +998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1002,7 +1012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1016,7 +1026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1030,7 +1040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1044,7 +1054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1057,8 +1067,11 @@
       <c r="D11" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
+      <c r="E11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1072,7 +1085,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -1086,7 +1099,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -1100,7 +1113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -1114,7 +1127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -1128,7 +1141,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -1142,7 +1155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -1156,7 +1169,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -1170,7 +1183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -1184,7 +1197,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -1198,7 +1211,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -1212,7 +1225,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -1226,7 +1239,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -1240,7 +1253,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1254,7 +1267,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1268,7 +1281,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1282,7 +1295,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1296,7 +1309,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1310,7 +1323,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1324,7 +1337,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1338,7 +1351,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15">
+    <row r="32" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -1352,7 +1365,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1366,7 +1379,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15">
+    <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1380,7 +1393,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1394,7 +1407,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15">
+    <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -1408,7 +1421,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -1422,7 +1435,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15">
+    <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -1436,7 +1449,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15">
+    <row r="39" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -1450,7 +1463,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15">
+    <row r="40" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -1464,7 +1477,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15">
+    <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -1478,7 +1491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -1492,7 +1505,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15">
+    <row r="43" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -1506,7 +1519,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15">
+    <row r="44" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -1523,49 +1536,49 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3" tooltip="http://www.miit.gov.cn/gdnps/wjfbindex.jsp"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C19" r:id="rId6"/>
-    <hyperlink ref="C7" r:id="rId7"/>
-    <hyperlink ref="C8" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9"/>
-    <hyperlink ref="C12" r:id="rId10"/>
-    <hyperlink ref="C42" r:id="rId11" tooltip="https://www.mem.gov.cn/gk/tzgg/"/>
-    <hyperlink ref="C14" r:id="rId12" tooltip="http://xxgk.mot.gov.cn/2020/jigou/"/>
-    <hyperlink ref="C16" r:id="rId13"/>
-    <hyperlink ref="C17" r:id="rId14"/>
-    <hyperlink ref="C18" r:id="rId15"/>
-    <hyperlink ref="C41" r:id="rId16"/>
-    <hyperlink ref="C23" r:id="rId17"/>
-    <hyperlink ref="C39" r:id="rId18"/>
-    <hyperlink ref="C24" r:id="rId19"/>
-    <hyperlink ref="C35" r:id="rId20"/>
-    <hyperlink ref="C34" r:id="rId21"/>
-    <hyperlink ref="C31" r:id="rId22"/>
-    <hyperlink ref="C10" r:id="rId23"/>
-    <hyperlink ref="C9" r:id="rId24"/>
-    <hyperlink ref="C33" r:id="rId25"/>
-    <hyperlink ref="C32" r:id="rId26"/>
-    <hyperlink ref="C26" r:id="rId27"/>
-    <hyperlink ref="C36" r:id="rId28"/>
-    <hyperlink ref="C22" r:id="rId29"/>
-    <hyperlink ref="C37" r:id="rId30"/>
-    <hyperlink ref="C29" r:id="rId31"/>
-    <hyperlink ref="C43" r:id="rId32"/>
-    <hyperlink ref="C38" r:id="rId33"/>
-    <hyperlink ref="C28" r:id="rId34"/>
-    <hyperlink ref="C27" r:id="rId35"/>
-    <hyperlink ref="C44" r:id="rId36"/>
-    <hyperlink ref="C25" r:id="rId37"/>
-    <hyperlink ref="C30" r:id="rId38"/>
-    <hyperlink ref="C21" r:id="rId39"/>
-    <hyperlink ref="C20" r:id="rId40"/>
-    <hyperlink ref="C13" r:id="rId41"/>
-    <hyperlink ref="C40" r:id="rId42"/>
-    <hyperlink ref="C15" r:id="rId43"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" tooltip="http://www.miit.gov.cn/gdnps/wjfbindex.jsp" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C42" r:id="rId11" tooltip="https://www.mem.gov.cn/gk/tzgg/" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C14" r:id="rId12" tooltip="http://xxgk.mot.gov.cn/2020/jigou/" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C41" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C23" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C39" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C35" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C34" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C31" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C10" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C9" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C33" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C32" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C26" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C36" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C22" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C37" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C29" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C43" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C38" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C28" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C27" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C44" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C25" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C30" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C20" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C13" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C40" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C15" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId44"/>
